--- a/Model files and sample codes/Example_data.xlsx
+++ b/Model files and sample codes/Example_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\Submit to ES&amp;T\Model files and sample codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C883C0E8-79DF-4D2C-8FD6-B9B4929A3027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E0581F-88FB-4729-9FA8-CCD320658BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,10 +32,6 @@
   </si>
   <si>
     <t>Compost time (day)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GI</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -136,6 +132,10 @@
   </si>
   <si>
     <t>Initial C/N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbon_nitrogen_ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,9 +245,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,7 +533,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -552,54 +552,54 @@
   <sheetData>
     <row r="1" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>550</v>
@@ -617,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3">
         <v>7.56</v>
@@ -641,12 +641,12 @@
         <v>58.13</v>
       </c>
       <c r="O2" s="6">
-        <v>14.63</v>
+        <v>24.82</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>550</v>
@@ -664,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3">
         <v>7.56</v>
@@ -688,12 +688,12 @@
         <v>57.92</v>
       </c>
       <c r="O3" s="6">
-        <v>35.869999999999997</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>550</v>
@@ -711,7 +711,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
         <v>7.56</v>
@@ -735,12 +735,12 @@
         <v>54.05</v>
       </c>
       <c r="O4" s="6">
-        <v>35.049999999999997</v>
+        <v>23.07</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>550</v>
@@ -758,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3">
         <v>7.56</v>
@@ -782,12 +782,12 @@
         <v>51.46</v>
       </c>
       <c r="O5" s="6">
-        <v>62.15</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>550</v>
@@ -805,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3">
         <v>7.56</v>
@@ -829,12 +829,12 @@
         <v>49.31</v>
       </c>
       <c r="O6" s="6">
-        <v>75.37</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
         <v>550</v>
@@ -852,7 +852,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3">
         <v>7.56</v>
@@ -876,12 +876,12 @@
         <v>45.35</v>
       </c>
       <c r="O7" s="6">
-        <v>102.98</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3">
         <v>550</v>
@@ -899,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3">
         <v>7.56</v>
@@ -923,7 +923,7 @@
         <v>42.6</v>
       </c>
       <c r="O8" s="6">
-        <v>114.55</v>
+        <v>13.1</v>
       </c>
     </row>
   </sheetData>
